--- a/excel/삼성스마트TV_4월_202204.xlsx
+++ b/excel/삼성스마트TV_4월_202204.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa park\Desktop\yhp\source\solRTMP_filelive_3.0\monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa park\Desktop\yhp\source\filelive_5.0.0\filelive_4.0-master\monitoring\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="블랙독" sheetId="23" r:id="rId1"/>
@@ -4641,10 +4641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5437,12 +5437,6 @@
       </c>
       <c r="N18" s="1">
         <v>4406000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F20">
-        <f>SUM(F3:F9)</f>
-        <v>31735000</v>
       </c>
     </row>
   </sheetData>
@@ -8714,7 +8708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
